--- a/MainTop/10.10.2025 Таня ВБ/spros_print_sorted.xlsx
+++ b/MainTop/10.10.2025 Таня ВБ/spros_print_sorted.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\10.10.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\10.10.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E713A8-5BFF-4474-9356-5F11BED0C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD38443-1741-4C4B-B20A-757238D8E78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="135">
   <si>
     <t>Артикул</t>
   </si>
@@ -433,6 +422,9 @@
   </si>
   <si>
     <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -497,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -520,11 +512,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -535,6 +538,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -837,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +854,7 @@
     <col min="1" max="1" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +867,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -876,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -904,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -918,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -932,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -946,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -960,7 +969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -974,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -988,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
